--- a/data/trans_orig/P14C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670AA797-7848-4EA6-ACA0-9786AEDCC972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6648E630-3190-4B10-BC5A-3C367F209A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEFABA0A-310B-4A04-AD27-3B5D7C443A13}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6ACC88A-76DF-492D-8E94-9CD24CB78320}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,19 +83,19 @@
     <t>79,41%</t>
   </si>
   <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>20,59%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -146,7 +146,7 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>11,54%</t>
+    <t>10,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,7 +158,7 @@
     <t>60,04%</t>
   </si>
   <si>
-    <t>17,89%</t>
+    <t>18,2%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -167,43 +167,43 @@
     <t>62,42%</t>
   </si>
   <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>39,96%</t>
   </si>
   <si>
-    <t>82,11%</t>
+    <t>81,8%</t>
   </si>
   <si>
     <t>29,63%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -212,13 +212,13 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>33,24%</t>
+    <t>39,65%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>24,78%</t>
+    <t>24,69%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,13 +230,13 @@
     <t>77,52%</t>
   </si>
   <si>
-    <t>42,92%</t>
+    <t>36,0%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>46,34%</t>
+    <t>40,91%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -245,100 +245,100 @@
     <t>12,51%</t>
   </si>
   <si>
-    <t>56,95%</t>
+    <t>59,35%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>44,9%</t>
+    <t>51,04%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>47,71%</t>
+    <t>49,37%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>43,32%</t>
+    <t>49,06%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>27,67%</t>
+    <t>33,27%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37DAEE-309C-4CD7-98E5-088680F980AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914F367F-D2B5-42D1-93F3-A3CD9951128A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C07-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6648E630-3190-4B10-BC5A-3C367F209A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5EC85B5-B4C1-45FF-A0A9-A54C393E25F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6ACC88A-76DF-492D-8E94-9CD24CB78320}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6FDEB8CF-846B-4D69-A67D-02DCAF8F01F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
-    <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2015 (Tasa respuesta: 1,02%)</t>
+    <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>67,71%</t>
   </si>
   <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>79,41%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>77,2%</t>
   </si>
   <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,61%</t>
+    <t>56,47%</t>
   </si>
   <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,7 +134,7 @@
     <t>12,08%</t>
   </si>
   <si>
-    <t>47,89%</t>
+    <t>50,07%</t>
   </si>
   <si>
     <t>0%</t>
@@ -146,7 +146,7 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>10,9%</t>
+    <t>12,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,7 +158,7 @@
     <t>60,04%</t>
   </si>
   <si>
-    <t>18,2%</t>
+    <t>17,82%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -167,43 +167,43 @@
     <t>62,42%</t>
   </si>
   <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>39,96%</t>
   </si>
   <si>
-    <t>81,8%</t>
+    <t>82,18%</t>
   </si>
   <si>
     <t>29,63%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -212,13 +212,13 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>39,65%</t>
+    <t>33,35%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>24,69%</t>
+    <t>24,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -230,13 +230,13 @@
     <t>77,52%</t>
   </si>
   <si>
-    <t>36,0%</t>
+    <t>33,92%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>40,91%</t>
+    <t>46,47%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -245,100 +245,100 @@
     <t>12,51%</t>
   </si>
   <si>
-    <t>59,35%</t>
+    <t>58,19%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>51,04%</t>
+    <t>47,72%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>49,37%</t>
+    <t>40,83%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>33,27%</t>
+    <t>34,36%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>11,28%</t>
+    <t>10,12%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914F367F-D2B5-42D1-93F3-A3CD9951128A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A04101-F42D-4148-BDFD-4E8C7740B7FB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
